--- a/StyleOfDelivery/bcio_style.xlsx
+++ b/StyleOfDelivery/bcio_style.xlsx
@@ -5302,7 +5302,9 @@
       <c r="Q89" s="3" t="inlineStr"/>
       <c r="R89" s="3" t="inlineStr"/>
       <c r="S89" s="3" t="inlineStr"/>
-      <c r="T89" s="3" t="inlineStr"/>
+      <c r="T89" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="U89" s="3" t="inlineStr"/>
     </row>
     <row r="90">
@@ -5435,7 +5437,7 @@
       <c r="E92" s="2" t="inlineStr"/>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>‘expressive behaviour’ AND 'inter-personal behaviour'</t>
+          <t>'expressive behaviour' AND 'inter-personal behaviour'</t>
         </is>
       </c>
       <c r="G92" s="2" t="inlineStr"/>
@@ -5451,7 +5453,7 @@
       </c>
       <c r="N92" s="2" t="inlineStr">
         <is>
-          <t>JH; PS</t>
+          <t>JH; PS; BG</t>
         </is>
       </c>
       <c r="O92" s="2" t="inlineStr"/>

--- a/StyleOfDelivery/bcio_style.xlsx
+++ b/StyleOfDelivery/bcio_style.xlsx
@@ -49,7 +49,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002f4f4f"/>
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -5716,13 +5716,13 @@
       </c>
       <c r="N97" s="4" t="inlineStr">
         <is>
-          <t>JH; PS</t>
+          <t>JH; PS; BG</t>
         </is>
       </c>
       <c r="O97" s="4" t="inlineStr"/>
       <c r="P97" s="4" t="inlineStr">
         <is>
-          <t>Obsolete</t>
+          <t>Discussed</t>
         </is>
       </c>
       <c r="Q97" s="4" t="inlineStr"/>

--- a/StyleOfDelivery/bcio_style.xlsx
+++ b/StyleOfDelivery/bcio_style.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
         <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -5302,8 +5296,10 @@
       <c r="Q89" s="3" t="inlineStr"/>
       <c r="R89" s="3" t="inlineStr"/>
       <c r="S89" s="3" t="inlineStr"/>
-      <c r="T89" s="3" t="n">
-        <v>0</v>
+      <c r="T89" s="3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U89" s="3" t="inlineStr"/>
     </row>
@@ -5681,59 +5677,59 @@
       <c r="U96" s="2" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" s="4" t="inlineStr">
+      <c r="A97" s="2" t="inlineStr">
         <is>
           <t>BCIO:036025</t>
         </is>
       </c>
-      <c r="B97" s="4" t="inlineStr">
+      <c r="B97" s="2" t="inlineStr">
         <is>
           <t>inter-personal behaviour</t>
         </is>
       </c>
-      <c r="C97" s="4" t="inlineStr">
+      <c r="C97" s="2" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="D97" s="4" t="inlineStr">
+      <c r="D97" s="2" t="inlineStr">
         <is>
           <t>An individual human behaviour that involves an interaction between two or more people.</t>
         </is>
       </c>
-      <c r="E97" s="4" t="inlineStr"/>
-      <c r="F97" s="4" t="inlineStr"/>
-      <c r="G97" s="4" t="inlineStr"/>
-      <c r="H97" s="4" t="inlineStr"/>
-      <c r="I97" s="4" t="inlineStr"/>
-      <c r="J97" s="4" t="inlineStr"/>
-      <c r="K97" s="4" t="inlineStr"/>
-      <c r="L97" s="4" t="inlineStr"/>
-      <c r="M97" s="4" t="inlineStr">
-        <is>
-          <t>style of delivery</t>
-        </is>
-      </c>
-      <c r="N97" s="4" t="inlineStr">
+      <c r="E97" s="2" t="inlineStr"/>
+      <c r="F97" s="2" t="inlineStr"/>
+      <c r="G97" s="2" t="inlineStr"/>
+      <c r="H97" s="2" t="inlineStr"/>
+      <c r="I97" s="2" t="inlineStr"/>
+      <c r="J97" s="2" t="inlineStr"/>
+      <c r="K97" s="2" t="inlineStr"/>
+      <c r="L97" s="2" t="inlineStr"/>
+      <c r="M97" s="2" t="inlineStr">
+        <is>
+          <t>style of delivery</t>
+        </is>
+      </c>
+      <c r="N97" s="2" t="inlineStr">
         <is>
           <t>JH; PS; BG</t>
         </is>
       </c>
-      <c r="O97" s="4" t="inlineStr"/>
-      <c r="P97" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="Q97" s="4" t="inlineStr"/>
-      <c r="R97" s="4" t="inlineStr"/>
-      <c r="S97" s="4" t="inlineStr"/>
-      <c r="T97" s="4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U97" s="4" t="inlineStr"/>
+      <c r="O97" s="2" t="inlineStr"/>
+      <c r="P97" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="Q97" s="2" t="inlineStr"/>
+      <c r="R97" s="2" t="inlineStr"/>
+      <c r="S97" s="2" t="inlineStr"/>
+      <c r="T97" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U97" s="2" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
